--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2907199-86A4-45E3-B249-BF25C6697546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2A782-6663-41C0-963A-76CBD7447FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="15" r:id="rId1"/>
+    <sheet name="List_component" sheetId="15" r:id="rId1"/>
     <sheet name="01 IC" sheetId="14" r:id="rId2"/>
     <sheet name="02 Resistor" sheetId="16" r:id="rId3"/>
     <sheet name="03 Capacitor" sheetId="17" r:id="rId4"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="681">
   <si>
     <t>Value</t>
   </si>
@@ -2090,6 +2090,9 @@
   </si>
   <si>
     <t>MOV</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -2940,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,6 +3003,9 @@
       </c>
       <c r="B5" s="11" t="s">
         <v>665</v>
+      </c>
+      <c r="D5" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2A782-6663-41C0-963A-76CBD7447FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0908E1AB-FBAE-4749-84D0-C850EA44757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
   <si>
     <t>Value</t>
   </si>
@@ -2090,9 +2090,6 @@
   </si>
   <si>
     <t>MOV</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +2941,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,9 +3000,6 @@
       </c>
       <c r="B5" s="11" t="s">
         <v>665</v>
-      </c>
-      <c r="D5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0908E1AB-FBAE-4749-84D0-C850EA44757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AC88B-C178-40F7-A4D2-9D1D30817925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="681">
   <si>
     <t>Value</t>
   </si>
@@ -2090,6 +2090,9 @@
   </si>
   <si>
     <t>MOV</t>
+  </si>
+  <si>
+    <t>sdgsdgsg</t>
   </si>
 </sst>
 </file>
@@ -2938,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,7 +2953,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>1</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>11</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>14</v>
       </c>
@@ -3074,12 +3077,15 @@
         <v>673</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>674</v>
+      </c>
+      <c r="H15" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AC88B-C178-40F7-A4D2-9D1D30817925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8324C-772E-44B2-BB6F-462315DFCFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
   <si>
     <t>Value</t>
   </si>
@@ -2090,9 +2090,6 @@
   </si>
   <si>
     <t>MOV</t>
-  </si>
-  <si>
-    <t>sdgsdgsg</t>
   </si>
 </sst>
 </file>
@@ -2941,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,7 +2950,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>1</v>
       </c>
@@ -2964,7 +2961,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -2997,7 +2994,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -3005,7 +3002,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -3021,7 +3018,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -3029,7 +3026,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>11</v>
       </c>
@@ -3053,7 +3050,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>14</v>
       </c>
@@ -3077,15 +3074,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="H15" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8324C-772E-44B2-BB6F-462315DFCFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4157C-8A87-415B-AB25-2EE504F355C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List_component" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="767">
   <si>
     <t>Value</t>
   </si>
@@ -2090,6 +2090,267 @@
   </si>
   <si>
     <t>MOV</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>DatabaseID</t>
+  </si>
+  <si>
+    <t>Part Number2</t>
+  </si>
+  <si>
+    <t>01-0001</t>
+  </si>
+  <si>
+    <t>01-0002</t>
+  </si>
+  <si>
+    <t>01-0003</t>
+  </si>
+  <si>
+    <t>01-0004</t>
+  </si>
+  <si>
+    <t>01-0005</t>
+  </si>
+  <si>
+    <t>02-0001</t>
+  </si>
+  <si>
+    <t>02-0002</t>
+  </si>
+  <si>
+    <t>02-0003</t>
+  </si>
+  <si>
+    <t>02-0004</t>
+  </si>
+  <si>
+    <t>02-0005</t>
+  </si>
+  <si>
+    <t>02-0006</t>
+  </si>
+  <si>
+    <t>02-0007</t>
+  </si>
+  <si>
+    <t>02-0008</t>
+  </si>
+  <si>
+    <t>02-0009</t>
+  </si>
+  <si>
+    <t>02-0010</t>
+  </si>
+  <si>
+    <t>02-0011</t>
+  </si>
+  <si>
+    <t>02-0012</t>
+  </si>
+  <si>
+    <t>02-0013</t>
+  </si>
+  <si>
+    <t>02-0014</t>
+  </si>
+  <si>
+    <t>02-0015</t>
+  </si>
+  <si>
+    <t>02-0016</t>
+  </si>
+  <si>
+    <t>03-0001</t>
+  </si>
+  <si>
+    <t>03-0002</t>
+  </si>
+  <si>
+    <t>03-0003</t>
+  </si>
+  <si>
+    <t>03-0004</t>
+  </si>
+  <si>
+    <t>03-0005</t>
+  </si>
+  <si>
+    <t>03-0006</t>
+  </si>
+  <si>
+    <t>03-0007</t>
+  </si>
+  <si>
+    <t>03-0008</t>
+  </si>
+  <si>
+    <t>03-0009</t>
+  </si>
+  <si>
+    <t>03-0010</t>
+  </si>
+  <si>
+    <t>03-0011</t>
+  </si>
+  <si>
+    <t>03-0012</t>
+  </si>
+  <si>
+    <t>03-0013</t>
+  </si>
+  <si>
+    <t>03-0014</t>
+  </si>
+  <si>
+    <t>03-0015</t>
+  </si>
+  <si>
+    <t>03-0016</t>
+  </si>
+  <si>
+    <t>03-0017</t>
+  </si>
+  <si>
+    <t>03-0018</t>
+  </si>
+  <si>
+    <t>03-0019</t>
+  </si>
+  <si>
+    <t>04-0001</t>
+  </si>
+  <si>
+    <t>04-0002</t>
+  </si>
+  <si>
+    <t>04-0003</t>
+  </si>
+  <si>
+    <t>04-0004</t>
+  </si>
+  <si>
+    <t>04-0005</t>
+  </si>
+  <si>
+    <t>05-0001</t>
+  </si>
+  <si>
+    <t>05-0002</t>
+  </si>
+  <si>
+    <t>06-0001</t>
+  </si>
+  <si>
+    <t>08-0001</t>
+  </si>
+  <si>
+    <t>06-0002</t>
+  </si>
+  <si>
+    <t>06-0003</t>
+  </si>
+  <si>
+    <t>06-0004</t>
+  </si>
+  <si>
+    <t>06-0005</t>
+  </si>
+  <si>
+    <t>06-0006</t>
+  </si>
+  <si>
+    <t>06-0007</t>
+  </si>
+  <si>
+    <t>06-0008</t>
+  </si>
+  <si>
+    <t>06-0009</t>
+  </si>
+  <si>
+    <t>06-0010</t>
+  </si>
+  <si>
+    <t>Datsbase</t>
+  </si>
+  <si>
+    <t>07-0001</t>
+  </si>
+  <si>
+    <t>DatsbaseID</t>
+  </si>
+  <si>
+    <t>09-0001</t>
+  </si>
+  <si>
+    <t>09-0002</t>
+  </si>
+  <si>
+    <t>09-0003</t>
+  </si>
+  <si>
+    <t>09-0004</t>
+  </si>
+  <si>
+    <t>09-0005</t>
+  </si>
+  <si>
+    <t>09-0006</t>
+  </si>
+  <si>
+    <t>09-0007</t>
+  </si>
+  <si>
+    <t>09-0008</t>
+  </si>
+  <si>
+    <t>09-0009</t>
+  </si>
+  <si>
+    <t>09-0010</t>
+  </si>
+  <si>
+    <t>09-0011</t>
+  </si>
+  <si>
+    <t>09-0012</t>
+  </si>
+  <si>
+    <t>10-0001</t>
+  </si>
+  <si>
+    <t>11-0001</t>
+  </si>
+  <si>
+    <t>11-0002</t>
+  </si>
+  <si>
+    <t>11-0003</t>
+  </si>
+  <si>
+    <t>11-0004</t>
+  </si>
+  <si>
+    <t>12-0001</t>
+  </si>
+  <si>
+    <t>12-0002</t>
+  </si>
+  <si>
+    <t>13-0001</t>
+  </si>
+  <si>
+    <t>14-0001</t>
+  </si>
+  <si>
+    <t>14-0002</t>
+  </si>
+  <si>
+    <t>15-0001</t>
   </si>
 </sst>
 </file>
@@ -2245,10 +2506,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Components" displayName="Components" ref="A1:S7" totalsRowShown="0">
-  <autoFilter ref="A1:S7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Components" displayName="Components" ref="A1:T7" totalsRowShown="0">
+  <autoFilter ref="A1:T7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DatabaseID"/>
+    <tableColumn id="18" xr3:uid="{0F3E4722-E6BE-4BE4-865B-570481920083}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Product Category"/>
@@ -2273,10 +2535,11 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Components913" displayName="Components913" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Components913" displayName="Components913" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{8CF3DD87-0321-4E76-8E82-A864B56214ED}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Product Category" dataDxfId="2"/>
@@ -2301,10 +2564,11 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Components91314" displayName="Components91314" ref="A1:T5" totalsRowShown="0">
-  <autoFilter ref="A1:T5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="20">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Components91314" displayName="Components91314" ref="A1:U5" totalsRowShown="0">
+  <autoFilter ref="A1:U5" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="DatabaseID"/>
+    <tableColumn id="18" xr3:uid="{8A56F39A-AF88-47EC-92AE-1EC51619CD26}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Product Category"/>
@@ -2332,10 +2596,11 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Components9131415" displayName="Components9131415" ref="A1:S3" totalsRowShown="0">
-  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Components9131415" displayName="Components9131415" ref="A1:T3" totalsRowShown="0">
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{6EAE9220-F6E5-4349-8F94-2DFB018CF143}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Product Category"/>
@@ -2362,13 +2627,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Components913141510" displayName="Components913141510" ref="A1:S3" totalsRowShown="0">
-  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Components913141510" displayName="Components913141510" ref="A1:U3" totalsRowShown="0">
+  <autoFilter ref="A1:U3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="DatabaseID"/>
+    <tableColumn id="18" xr3:uid="{E17698A1-E717-4E71-A2FC-0E5B5B8819BA}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Product Category"/>
+    <tableColumn id="1" xr3:uid="{5B22BDB2-A900-4C8D-B9FB-9F56C0A3625C}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Value"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Alt-Value"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Tolerance"/>
@@ -2390,10 +2657,11 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Components91314151011" displayName="Components91314151011" ref="A1:S3" totalsRowShown="0">
-  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Components91314151011" displayName="Components91314151011" ref="A1:T3" totalsRowShown="0">
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{7AB631CD-0B1D-4FBC-8451-C2CB11EE6A36}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Product Category"/>
@@ -2418,10 +2686,11 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Components9131415101116" displayName="Components9131415101116" ref="A1:S3" totalsRowShown="0">
-  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Components9131415101116" displayName="Components9131415101116" ref="A1:T3" totalsRowShown="0">
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{F88D2A61-6070-4EEC-9497-DF2E72A4CED9}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Product Category"/>
@@ -2446,10 +2715,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Components3" displayName="Components3" ref="A1:S17" totalsRowShown="0">
-  <autoFilter ref="A1:S17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Components3" displayName="Components3" ref="A1:T17" totalsRowShown="0">
+  <autoFilter ref="A1:T17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DatabaseID"/>
+    <tableColumn id="18" xr3:uid="{4C0F9F3C-CD0D-4521-805A-F1508FC1C49A}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Product Category"/>
@@ -2476,10 +2746,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Components4" displayName="Components4" ref="A1:S20" totalsRowShown="0">
-  <autoFilter ref="A1:S20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Components4" displayName="Components4" ref="A1:T20" totalsRowShown="0">
+  <autoFilter ref="A1:T20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{E490244D-B192-4978-BF8A-57AF3F551645}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product Category"/>
@@ -2506,10 +2777,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Components5" displayName="Components5" ref="A1:S6" totalsRowShown="0">
-  <autoFilter ref="A1:S6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Components5" displayName="Components5" ref="A1:T6" totalsRowShown="0">
+  <autoFilter ref="A1:T6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{E3196025-902B-46F2-86EE-D2BD24D50C4C}" name="Part Number2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Product Category"/>
@@ -2534,10 +2806,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Components6" displayName="Components6" ref="A1:S3" totalsRowShown="0">
-  <autoFilter ref="A1:S3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Components6" displayName="Components6" ref="A1:T3" totalsRowShown="0">
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{E36CCC8C-1BB9-4792-97E1-97592770649C}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Product Category"/>
@@ -2562,10 +2835,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Components7" displayName="Components7" ref="A1:S11" totalsRowShown="0">
-  <autoFilter ref="A1:S11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Components7" displayName="Components7" ref="A1:T11" totalsRowShown="0">
+  <autoFilter ref="A1:T11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{EDC86288-99AE-4428-833C-869214A351B6}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Product Category"/>
@@ -2590,10 +2864,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Components8" displayName="Components8" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Components8" displayName="Components8" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Datsbase"/>
+    <tableColumn id="1" xr3:uid="{D122E631-DCBA-4640-BFB3-B70F835829BD}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Product Category"/>
@@ -2618,10 +2893,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Components9" displayName="Components9" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Components9" displayName="Components9" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="DatsbaseID"/>
+    <tableColumn id="1" xr3:uid="{1231E988-088F-43F4-882C-619B4A8A1B80}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Product Category"/>
@@ -2636,7 +2912,7 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Hight"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Dimension [mm]"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="LIBRARTY MADE BY"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="LINK VIET NAM"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="LINK VIET NAM" dataCellStyle="Hyperlink"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="LINK ORIGINAL"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Library Ref"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="Footprint Ref"/>
@@ -2646,10 +2922,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Components912" displayName="Components912" ref="A1:S13" totalsRowShown="0">
-  <autoFilter ref="A1:S13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Components912" displayName="Components912" ref="A1:T13" totalsRowShown="0">
+  <autoFilter ref="A1:T13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="DatabaseID"/>
+    <tableColumn id="1" xr3:uid="{0AAE015F-C3D2-4B3D-A50E-E6F78D8F3EA6}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Product Category"/>
@@ -2940,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,452 +3383,492 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="6">
+      <c r="F2" s="1"/>
+      <c r="G2" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3">
         <v>7471287</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>102</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>103</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>99</v>
-      </c>
-      <c r="R3">
-        <v>7471287</v>
       </c>
       <c r="S3">
         <v>7471287</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>7471287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" t="s">
         <v>400</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>401</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>402</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>403</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>393</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>405</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>404</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>407</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>406</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>397</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>401</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>409</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>410</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>110</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>405</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>411</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>416</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>415</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>397</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>413</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>465</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B8" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>465</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" t="s">
         <v>512</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>514</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>514</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B11" t="s">
         <v>581</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>582</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>583</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>584</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>573</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>581</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B12" t="s">
         <v>400</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>401</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>402</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>393</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>405</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>404</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>588</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>590</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B13" t="s">
         <v>647</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>648</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>649</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>650</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>Components912[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>394</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>651</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>646</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>652</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>618</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>653</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.digikey.com/en/products/filter/terminals/quick-connects-quick-disconnect-connectors/392" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="Connectors/Screw Terminal Blocks" display="https://lcsc.com/products/Screw-Terminal-Blocks_11140.html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" tooltip="Connectors/Barrier Terminal Blocks" display="https://lcsc.com/products/Barrier-Terminal-Blocks_11073.html" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="D11" r:id="rId4" tooltip="Connectors/Audio Connectors" display="https://lcsc.com/products/Audio-Connectors_590.html" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="P11" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="Q11" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="D12" r:id="rId7" tooltip="Connectors/Screw Terminal Blocks" display="https://lcsc.com/products/Screw-Terminal-Blocks_11140.html" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="Q12" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="D13" r:id="rId9" tooltip="Connectors/Wire To Board Connector" display="https://lcsc.com/products/Wire-To-Board-Connector_11068.html" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.digikey.com/en/products/filter/terminals/quick-connects-quick-disconnect-connectors/392" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" tooltip="Connectors/Screw Terminal Blocks" display="https://lcsc.com/products/Screw-Terminal-Blocks_11140.html" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" tooltip="Connectors/Barrier Terminal Blocks" display="https://lcsc.com/products/Barrier-Terminal-Blocks_11073.html" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId4" tooltip="Connectors/Audio Connectors" display="https://lcsc.com/products/Audio-Connectors_590.html" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="Q11" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="R11" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" tooltip="Connectors/Screw Terminal Blocks" display="https://lcsc.com/products/Screw-Terminal-Blocks_11140.html" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="R12" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="Connectors/Wire To Board Connector" display="https://lcsc.com/products/Wire-To-Board-Connector_11068.html" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -3563,123 +3880,129 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" t="s">
         <v>366</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>367</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>368</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>369</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>370</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>373</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>372</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>371</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>375</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>374</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>365</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Audio Products / Vibration Motors/Buzzers" display="https://lcsc.com/products/Buzzers_386.html" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Audio Products / Vibration Motors/Buzzers" display="https://lcsc.com/products/Buzzers_386.html" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3690,283 +4013,299 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="19" max="19" width="21.5703125" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="1" max="2" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>339</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>193</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>197</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>194</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>Components91314[[#This Row],[Value]]</f>
         <v>4.7mH</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>195</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>192</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>138</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" t="s">
         <v>262</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>263</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>264</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>265</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>266</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>Components91314[[#This Row],[Value]]</f>
         <v>6.8uH</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>111</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>341</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>269</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>268</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>138</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B4" t="s">
         <v>343</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>344</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>346</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>347</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>Components91314[[#This Row],[Value]]</f>
         <v>100Ω</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>348</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>351</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>352</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>353</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>Components91314[[#This Row],[Value]]</f>
         <v>4.7 uH</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>475</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>340</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>133</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>136</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>135</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>134</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>137</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>139</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>138</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>476</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.linhkienchatluong.vn/china_h1257.aspx" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" tooltip="Inductors, Coils, Chokes/Inductors (SMD)" display="https://lcsc.com/products/Inductors-SMD_337.html" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="Q3" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" tooltip="Filters/Ferrite Beads" display="https://lcsc.com/products/Ferrite-Beads_527.html" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://www.mouser.com/manufacturer/bi-technologies/" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="Q5" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.linhkienchatluong.vn/china_h1257.aspx" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" tooltip="Inductors, Coils, Chokes/Inductors (SMD)" display="https://lcsc.com/products/Inductors-SMD_337.html" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="R3" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" tooltip="Filters/Ferrite Beads" display="https://lcsc.com/products/Ferrite-Beads_527.html" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" display="https://www.mouser.com/manufacturer/bi-technologies/" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="R5" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -3978,145 +4317,159 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>Components9131415[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>208</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>206</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" t="s">
         <v>388</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>389</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>390</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>391</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>Components9131415[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>393</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>394</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>392</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>387</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>395</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>206</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" tooltip="Circuit Protection/Resettable Fuses" display="https://lcsc.com/products/Resettable-Fuses_11042.html" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1" tooltip="Circuit Protection/Resettable Fuses" display="https://lcsc.com/products/Resettable-Fuses_11042.html" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4128,123 +4481,134 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="21" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B2" t="s">
         <v>272</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>274</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>275</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>276</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>277</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>272</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P3" s="5"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.digikey.com/en/products/filter/optocouplers-optoisolators/triac-scr-output-optoisolators/904" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.digikey.com/en/products/filter/optocouplers-optoisolators/triac-scr-output-optoisolators/904" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4255,163 +4619,173 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="18" max="19" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="19" max="20" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" t="s">
         <v>317</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>318</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>320</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>325</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>326</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>321</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>323</v>
-      </c>
-      <c r="R2" t="s">
-        <v>324</v>
       </c>
       <c r="S2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" t="s">
         <v>355</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>231</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>356</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>357</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>358</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>235</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>359</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>361</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>360</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>362</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H5" s="7"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.mouser.vn/manufacturer/central-semiconductor/" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.digikey.com/en/products/filter/transistors/bipolar-bjt/single-bipolar-transistors/276" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.mouser.vn/manufacturer/central-semiconductor/" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.digikey.com/en/products/filter/transistors/bipolar-bjt/single-bipolar-transistors/276" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4422,121 +4796,128 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B2" t="s">
         <v>478</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>480</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>481</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>483</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>482</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>484</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>485</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>487</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>486</v>
-      </c>
-      <c r="R2" t="s">
-        <v>478</v>
       </c>
       <c r="S2" t="s">
         <v>478</v>
       </c>
+      <c r="T2" t="s">
+        <v>478</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.mouser.vn/manufacturer/nxp-semiconductors/" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.mouser.vn/manufacturer/nxp-semiconductors/" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4548,290 +4929,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" customWidth="1"/>
+    <col min="21" max="21" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="O3" t="s">
+      <c r="M3" s="1"/>
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>26</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>52</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" t="s">
         <v>533</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>534</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>536</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>535</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>537</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>538</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>541</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>540</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>539</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>532</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="9"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Embedded Processors &amp; Controllers/Microcontrollers (MCU/MPU/SOC)" display="https://lcsc.com/products/Microcontrollers-MCU-MPU-SOC_11329.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" tooltip="LED Drivers/LED Drivers" display="https://lcsc.com/products/LED-Drivers_583.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://www.digikey.com/en/products/filter/power-management-pmic/voltage-regulators-dc-dc-switching-regulators/739" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.digikey.co.uk/en/products/filter/ac-dc-converters/923" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://www.digikey.com/en/products/filter/linear/amplifiers/audio-amplifiers/742" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Embedded Processors &amp; Controllers/Microcontrollers (MCU/MPU/SOC)" display="https://lcsc.com/products/Microcontrollers-MCU-MPU-SOC_11329.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" tooltip="LED Drivers/LED Drivers" display="https://lcsc.com/products/LED-Drivers_583.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.digikey.com/en/products/filter/power-management-pmic/voltage-regulators-dc-dc-switching-regulators/739" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.digikey.co.uk/en/products/filter/ac-dc-converters/923" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.digikey.com/en/products/filter/linear/amplifiers/audio-amplifiers/742" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -4843,946 +5242,998 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>188</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>Components3[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>213</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>Components3[[#This Row],[Value]]</f>
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.01</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>214</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>216</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>215</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>201</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>202</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>220</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>221</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>222</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>100K</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>223</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>226</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>253</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>225</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>252</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>229</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>227</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>202</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B5" t="s">
         <v>248</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>249</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>221</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>250</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>10K</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>251</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>226</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>253</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>225</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>252</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>254</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>255</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>202</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" t="s">
         <v>256</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>219</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>257</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>221</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>258</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>56K</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>259</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>226</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>253</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>225</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>252</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>260</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>261</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>202</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B7" t="s">
         <v>279</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>219</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>280</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>221</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>220</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>Components3[[#This Row],[Value]]</f>
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>281</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>226</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>253</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>225</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>252</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>283</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>202</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B8" t="s">
         <v>285</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>286</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>221</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>360</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>Components3[[#This Row],[Value]]</f>
         <v>360</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>287</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>224</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>160</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>226</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>253</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>225</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>252</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>284</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>291</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>202</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" t="s">
         <v>288</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>219</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>289</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>221</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>470</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>Components3[[#This Row],[Value]]</f>
         <v>470</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>287</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>224</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>160</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>226</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>253</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>225</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>252</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>284</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>290</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>202</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" t="s">
         <v>311</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>219</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>312</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>313</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>47</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>Components3[[#This Row],[Value]]</f>
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>297</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>204</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
+      <c r="K10"/>
+      <c r="L10" t="s">
         <v>314</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>315</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>310</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>316</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>202</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B11" t="s">
         <v>335</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>219</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>336</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>221</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>120</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f>Components3[[#This Row],[Value]]</f>
         <v>120</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>259</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>224</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>160</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>226</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>253</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>225</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>252</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>337</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>338</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>202</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B12" t="s">
         <v>505</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>506</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>221</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="G12" s="6" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>10K</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>259</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>226</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>253</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>225</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>252</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>507</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>202</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" t="s">
         <v>509</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>219</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>510</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>221</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>Components3[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>226</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>253</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>225</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>252</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>508</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>511</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>202</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B14" t="s">
         <v>542</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>543</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>544</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>545</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>623</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>50K</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>111</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>546</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>547</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>548</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>550</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>551</v>
       </c>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>701</v>
+      </c>
+      <c r="B15" t="s">
         <v>552</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>553</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>554</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>545</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>623</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>50K</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>546</v>
       </c>
-      <c r="J15"/>
-      <c r="K15" t="s">
+      <c r="K15"/>
+      <c r="L15" t="s">
         <v>547</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>548</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>22</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>549</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>555</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>551</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B16" t="s">
         <v>620</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>621</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>622</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>313</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="G16" s="6" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>10K</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>624</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>625</v>
       </c>
-      <c r="J16"/>
-      <c r="K16" t="s">
+      <c r="K16"/>
+      <c r="L16" t="s">
         <v>627</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>626</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>22</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>629</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>628</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>202</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B17" t="s">
         <v>631</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>632</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>633</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>313</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>634</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="G17" s="6" t="str">
         <f>Components3[[#This Row],[Value]]</f>
         <v>4.7K</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>259</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>625</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>627</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>626</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>22</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>636</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>635</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>202</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>630</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I7" r:id="rId7" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D12" r:id="rId12" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D13" r:id="rId13" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="D14" r:id="rId14" display="https://www.digikey.com/en/products/filter/rotary-potentiometers-rheostats/84" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="D15" r:id="rId15" display="https://www.digikey.com/en/products/filter/rotary-potentiometers-rheostats/84" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="P15" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="Q15" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="D16" r:id="rId18" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="D17" r:id="rId19" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="J4" r:id="rId1" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="J7" r:id="rId7" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/0-1w-1-10w/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IA3AOygBcAnAVzxAHsoBtcAFgAYA2ZkAXXwAdSUEAGUKASyIBzEAF85QA" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.digikey.com/en/products/filter/rotary-potentiometers-rheostats/84" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.digikey.com/en/products/filter/rotary-potentiometers-rheostats/84" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="Q15" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="R15" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="E17" r:id="rId19" display="https://www.digikey.com/en/products/filter/through-hole-resistors/53" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
@@ -5794,1122 +6245,1184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>10uF</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>115</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>116</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>470uF</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>111</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>127</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>116</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>143</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>47uF</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>146</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>147</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>116</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>155</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>100nF</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>156</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>157</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>160</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>226</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>383</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>384</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>252</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>158</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>159</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>163</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>1nF</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>111</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>166</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>576</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>168</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>167</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>169</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>170</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>159</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" t="s">
         <v>240</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>242</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>10uF</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>156</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>157</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>243</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>380</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>381</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>382</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>244</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>246</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>159</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" t="s">
         <v>293</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>294</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>295</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>296</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>155</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>100nF</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>297</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>298</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>299</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>292</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>300</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>159</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" t="s">
         <v>303</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>304</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>305</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>296</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>22nF</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>156</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>298</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>306</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>302</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>308</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>159</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B10" t="s">
         <v>376</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>219</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>377</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>378</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>8pF</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>379</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>157</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>243</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>380</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>381</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>382</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>244</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>385</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>386</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>159</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" t="s">
         <v>490</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>219</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>491</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>492</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="G11" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>0.1uF</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>156</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>489</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>226</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>253</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>384</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>252</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>488</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>493</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>159</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B12" t="s">
         <v>495</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>496</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>497</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>164</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>498</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="G12" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>0.01uF</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>156</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>226</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>253</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>384</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>252</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>494</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>499</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>159</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" t="s">
         <v>501</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>219</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>502</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>164</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>503</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="G13" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>470pF</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>297</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>226</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>253</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>384</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>252</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>500</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>504</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>159</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>716</v>
+      </c>
+      <c r="B14" t="s">
         <v>527</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>219</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>528</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>164</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>529</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="G14" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>1uF</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>156</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>489</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>226</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>253</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>384</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>252</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>22</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>488</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>530</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>159</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" t="s">
         <v>557</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>186</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>558</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>559</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>560</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="G15" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>0.47uF</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>297</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>561</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>575</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>562</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>563</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>167</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>564</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>22</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>556</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>159</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" t="s">
         <v>567</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>568</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>569</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>570</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>572</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>2200UF</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>111</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>577</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>578</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>579</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>116</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>719</v>
+      </c>
+      <c r="B17" t="s">
         <v>593</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>568</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>594</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>570</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="G17" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>47uF</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" t="s">
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
         <v>50</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>146</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>22</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>592</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>595</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>116</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>720</v>
+      </c>
+      <c r="B18" t="s">
         <v>597</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>568</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>598</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>570</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="G18" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>10uF</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>156</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>50</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>146</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>22</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>596</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>599</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>116</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>721</v>
+      </c>
+      <c r="B19" t="s">
         <v>600</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>568</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>594</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>570</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>143</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>47uF</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>111</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>144</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>601</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>602</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>603</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>22</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>605</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>604</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>116</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>722</v>
+      </c>
+      <c r="B20" t="s">
         <v>608</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>609</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>610</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>164</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>492</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="G20" s="6" t="str">
         <f>Components4[[#This Row],[Value]]</f>
         <v>0.1uF</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>156</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>157</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>611</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>612</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>613</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>614</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>615</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>617</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>159</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Capacitors/Aluminum Electrolytic Capacitors - Leaded" display="https://lcsc.com/products/Aluminum-Electrolytic-Capacitors-Leaded_315.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="Capacitors/Aluminum Electrolytic Capacitors - Leaded" display="https://lcsc.com/products/Aluminum-Electrolytic-Capacitors-Leaded_315.html" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" tooltip="Capacitors/Multilayer Ceramic Capacitors MLCC - SMD/SMT" display="https://lcsc.com/products/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_313.html" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/50v/60?s=N4IgjCBcpgLFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtEAJgGYAOAdk5AF0CABzJQQAZUoBLYgHMQAX0VA" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" tooltip="Capacitors/Polypropylene Film Capacitors (CBB)" display="https://lcsc.com/products/Polypropylene-Film-Capacitors-CBB_554.html" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" tooltip="Capacitors/Polypropylene Film Capacitors (CBB)" display="https://lcsc.com/products/Polypropylene-Film-Capacitors-CBB_554.html" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.digikey.com/en/products/filter/film-capacitors/62" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="Q15" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="D16" r:id="rId16" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="P16" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="D17" r:id="rId18" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="D18" r:id="rId19" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="H18" r:id="rId20" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/50v/60?s=N4IgjCBcpgLFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtEAJgGYAOAdk5AF0CABzJQQAZUoBLYgHMQAX0VA" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="D19" r:id="rId21" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="D20" r:id="rId22" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="P20" display="https://shopee.vn/T%E1%BB%A5-s%E1%BB%A9-v%C3%A0ng-104-100nF-0.1uF-50V-10-5.08mm-ch%E1%BA%A5t-l%C6%B0%E1%BB%A3ng-t%E1%BB%91t-(10c)-Linh-ki%E1%BB%87n-HT-i.1018903557.23674770970?sp_atk=980dfd78-bd79-49d9-acaf-0b84a868f613&amp;xptdk=980dfd78-bd79-49d9-acaf-0b84a" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Capacitors/Aluminum Electrolytic Capacitors - Leaded" display="https://lcsc.com/products/Aluminum-Electrolytic-Capacitors-Leaded_315.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" tooltip="Capacitors/Aluminum Electrolytic Capacitors - Leaded" display="https://lcsc.com/products/Aluminum-Electrolytic-Capacitors-Leaded_315.html" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" tooltip="Capacitors/Multilayer Ceramic Capacitors MLCC - SMD/SMT" display="https://lcsc.com/products/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_313.html" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/50v/60?s=N4IgjCBcpgLFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtEAJgGYAOAdk5AF0CABzJQQAZUoBLYgHMQAX0VA" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" tooltip="Capacitors/Polypropylene Film Capacitors (CBB)" display="https://lcsc.com/products/Polypropylene-Film-Capacitors-CBB_554.html" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" tooltip="Capacitors/Polypropylene Film Capacitors (CBB)" display="https://lcsc.com/products/Polypropylene-Film-Capacitors-CBB_554.html" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://www.digikey.com/en/products/filter/film-capacitors/62" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="R15" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="Q16" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="E17" r:id="rId18" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="E18" r:id="rId19" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="I18" r:id="rId20" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/50v/60?s=N4IgjCBcpgLFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtEAJgGYAOAdk5AF0CABzJQQAZUoBLYgHMQAX0VA" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="E19" r:id="rId21" display="https://www.digikey.com/en/products/filter/aluminum-electrolytic-capacitors/58" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="E20" r:id="rId22" display="https://www.digikey.com/en/products/filter/ceramic-capacitors/60" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="Q20" display="https://shopee.vn/T%E1%BB%A5-s%E1%BB%A9-v%C3%A0ng-104-100nF-0.1uF-50V-10-5.08mm-ch%E1%BA%A5t-l%C6%B0%E1%BB%A3ng-t%E1%BB%91t-(10c)-Linh-ki%E1%BB%87n-HT-i.1018903557.23674770970?sp_atk=980dfd78-bd79-49d9-acaf-0b84a868f613&amp;xptdk=980dfd78-bd79-49d9-acaf-0b84a" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -6921,443 +7434,474 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>174</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>175</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>177</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>178</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" t="s">
         <v>230</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>231</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>232</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>233</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>234</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>235</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>236</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>182</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4" t="s">
         <v>327</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>328</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>329</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>330</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>331</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>235</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>332</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>333</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>334</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>182</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5" t="s">
         <v>519</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>520</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>521</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>522</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>523</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>524</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>178</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>526</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>525</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>517</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" t="s">
         <v>655</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>656</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>657</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>658</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>234</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>660</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>659</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>654</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>662</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>661</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.mouser.com/manufacturer/fairchild-semiconductor/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.digikey.com/en/products/filter/diodes/rectifiers/single-diodes/280" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" tooltip="Diodes/Diodes - General Purpose" display="https://lcsc.com/products/Diodes-General-Purpose_370.html" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.digikey.com/en/products/filter/transient-voltage-suppressors-tvs/tvs-diodes/144" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="P6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://www.mouser.vn/manufacturer/rectron/" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.mouser.com/manufacturer/fairchild-semiconductor/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.digikey.com/en/products/filter/diodes/rectifiers/single-diodes/280" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" tooltip="Diodes/Diodes - General Purpose" display="https://lcsc.com/products/Diodes-General-Purpose_370.html" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.digikey.com/en/products/filter/transient-voltage-suppressors-tvs/tvs-diodes/144" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" display="https://www.mouser.vn/manufacturer/rectron/" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="R3" r:id="rId7" xr:uid="{7636782F-9235-45FB-8EC4-90B3871015C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>62</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>54</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>62</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>64</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Relays/Power Relays" display="https://lcsc.com/products/Power-Relays_531.html" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" tooltip="Relays/Power Relays" display="https://lcsc.com/products/Power-Relays_531.html" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Relays/Power Relays" display="https://lcsc.com/products/Power-Relays_531.html" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" tooltip="Relays/Power Relays" display="https://lcsc.com/products/Power-Relays_531.html" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7368,463 +7912,498 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>77</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>83</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4" t="s">
         <v>418</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>419</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>420</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>421</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>423</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>422</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>417</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>424</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>425</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B5" t="s">
         <v>443</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>444</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>445</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>421</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>446</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>447</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>449</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>448</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>428</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B6" t="s">
         <v>455</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>444</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>456</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>421</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>457</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>440</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>459</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>458</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>429</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" t="s">
         <v>450</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>419</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>451</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>421</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>452</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>440</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>243</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>454</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>453</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>430</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B8" t="s">
         <v>461</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>444</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>462</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>421</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>446</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>440</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>243</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>460</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>463</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>431</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" t="s">
         <v>437</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>419</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>438</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>421</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>439</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>440</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>442</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>441</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>432</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B10" t="s">
         <v>469</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>444</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>470</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>421</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>446</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>440</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>449</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>471</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>472</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B11" t="s">
         <v>638</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>639</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>640</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>641</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>440</v>
       </c>
-      <c r="J11"/>
-      <c r="M11" t="s">
+      <c r="K11"/>
+      <c r="N11" t="s">
         <v>642</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>637</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>643</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>645</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>644</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="Q4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="D9" r:id="rId4" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="D6" r:id="rId7" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId8" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="E4" r:id="rId1" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E6" r:id="rId7" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" tooltip="Optoelectronics/LED Indication - Discrete" display="https://lcsc.com/products/LED-Indication-Discrete_528.html" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -7836,112 +8415,118 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>73</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Transistors/Thyristors/Thyristors (SCR)/Modules" display="https://lcsc.com/products/Thyristors-SCR-Modules_388.html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Transistors/Thyristors/Thyristors (SCR)/Modules" display="https://lcsc.com/products/Thyristors-SCR-Modules_388.html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7952,103 +8537,112 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" customWidth="1"/>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>95</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>98</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>474</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{A335F530-4609-43A5-A9FC-F07DB21E1F7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4157C-8A87-415B-AB25-2EE504F355C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CF8F9-0989-4241-ACE9-62CA53A0743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="880" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2340" windowWidth="19320" windowHeight="11115" tabRatio="880" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List_component" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="766">
   <si>
     <t>Value</t>
   </si>
@@ -2096,9 +2096,6 @@
   </si>
   <si>
     <t>DatabaseID</t>
-  </si>
-  <si>
-    <t>Part Number2</t>
   </si>
   <si>
     <t>01-0001</t>
@@ -2781,7 +2778,7 @@
   <autoFilter ref="A1:T6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="20">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="DatabaseID"/>
-    <tableColumn id="1" xr3:uid="{E3196025-902B-46F2-86EE-D2BD24D50C4C}" name="Part Number2"/>
+    <tableColumn id="1" xr3:uid="{E3196025-902B-46F2-86EE-D2BD24D50C4C}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Product Category"/>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B3">
         <v>7471287</v>
@@ -3536,7 +3533,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
         <v>400</v>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B5" t="s">
         <v>408</v>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B6" t="s">
         <v>412</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
         <v>464</v>
@@ -3670,7 +3667,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B8" t="s">
         <v>467</v>
@@ -3691,7 +3688,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B9" t="s">
         <v>512</v>
@@ -3712,7 +3709,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B10" t="s">
         <v>513</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B11" t="s">
         <v>581</v>
@@ -3772,7 +3769,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B12" t="s">
         <v>400</v>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B13" t="s">
         <v>647</v>
@@ -3882,13 +3879,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="20" max="20" width="24.7109375" customWidth="1"/>
@@ -3958,7 +3956,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B2" t="s">
         <v>366</v>
@@ -4015,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4097,7 +4095,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B2" t="s">
         <v>198</v>
@@ -4139,7 +4137,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B3" t="s">
         <v>262</v>
@@ -4190,7 +4188,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B4" t="s">
         <v>343</v>
@@ -4241,7 +4239,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>477</v>
@@ -4393,7 +4391,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -4423,7 +4421,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
         <v>388</v>
@@ -4568,7 +4566,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B2" t="s">
         <v>272</v>
@@ -4698,7 +4696,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B2" t="s">
         <v>317</v>
@@ -4739,7 +4737,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B3" t="s">
         <v>355</v>
@@ -4798,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,7 +4871,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B2" t="s">
         <v>478</v>
@@ -5017,7 +5015,7 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -5057,7 +5055,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -5093,7 +5091,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -5128,7 +5126,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -5178,7 +5176,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s">
         <v>533</v>
@@ -5325,7 +5323,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B2" t="s">
         <v>185</v>
@@ -5367,7 +5365,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B3" t="s">
         <v>210</v>
@@ -5421,7 +5419,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -5481,7 +5479,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B5" t="s">
         <v>248</v>
@@ -5541,7 +5539,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B6" t="s">
         <v>256</v>
@@ -5601,7 +5599,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -5661,7 +5659,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B8" t="s">
         <v>285</v>
@@ -5721,7 +5719,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B9" t="s">
         <v>288</v>
@@ -5781,7 +5779,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B10" t="s">
         <v>311</v>
@@ -5833,7 +5831,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s">
         <v>335</v>
@@ -5893,7 +5891,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B12" t="s">
         <v>505</v>
@@ -5953,7 +5951,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B13" t="s">
         <v>509</v>
@@ -6013,7 +6011,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B14" t="s">
         <v>542</v>
@@ -6059,7 +6057,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B15" t="s">
         <v>552</v>
@@ -6111,7 +6109,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B16" t="s">
         <v>620</v>
@@ -6163,7 +6161,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B17" t="s">
         <v>631</v>
@@ -6328,7 +6326,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
@@ -6382,7 +6380,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -6430,7 +6428,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
         <v>140</v>
@@ -6484,7 +6482,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B5" t="s">
         <v>151</v>
@@ -6544,7 +6542,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B6" t="s">
         <v>162</v>
@@ -6598,7 +6596,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B7" t="s">
         <v>240</v>
@@ -6658,7 +6656,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
         <v>293</v>
@@ -6706,7 +6704,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
         <v>303</v>
@@ -6754,7 +6752,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
         <v>376</v>
@@ -6814,7 +6812,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" t="s">
         <v>490</v>
@@ -6874,7 +6872,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" t="s">
         <v>495</v>
@@ -6935,7 +6933,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
         <v>501</v>
@@ -6996,7 +6994,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" t="s">
         <v>527</v>
@@ -7057,7 +7055,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" t="s">
         <v>557</v>
@@ -7117,7 +7115,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" t="s">
         <v>567</v>
@@ -7171,7 +7169,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" t="s">
         <v>593</v>
@@ -7226,7 +7224,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" t="s">
         <v>597</v>
@@ -7280,7 +7278,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B19" t="s">
         <v>600</v>
@@ -7334,7 +7332,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B20" t="s">
         <v>608</v>
@@ -7437,7 +7435,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7456,7 +7454,7 @@
         <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -7515,7 +7513,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -7556,7 +7554,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B3" t="s">
         <v>230</v>
@@ -7597,7 +7595,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B4" t="s">
         <v>327</v>
@@ -7638,7 +7636,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B5" t="s">
         <v>519</v>
@@ -7679,7 +7677,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B6" t="s">
         <v>655</v>
@@ -7817,7 +7815,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -7858,7 +7856,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7994,7 +7992,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -8029,7 +8027,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -8064,7 +8062,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B4" t="s">
         <v>418</v>
@@ -8105,7 +8103,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B5" t="s">
         <v>443</v>
@@ -8146,7 +8144,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B6" t="s">
         <v>455</v>
@@ -8187,7 +8185,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
         <v>450</v>
@@ -8228,7 +8226,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
         <v>461</v>
@@ -8269,7 +8267,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B9" t="s">
         <v>437</v>
@@ -8310,7 +8308,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B10" t="s">
         <v>469</v>
@@ -8351,7 +8349,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B11" t="s">
         <v>638</v>
@@ -8429,7 +8427,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -8491,7 +8489,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -8553,7 +8551,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -8615,7 +8613,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>

--- a/Altium_Component_Lib_Database.xlsx
+++ b/Altium_Component_Lib_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VPM\Lib_Altium_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CF8F9-0989-4241-ACE9-62CA53A0743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6472B3-2362-49EB-9B0B-D3ACD7CFB22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2340" windowWidth="19320" windowHeight="11115" tabRatio="880" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2340" windowWidth="19320" windowHeight="11115" tabRatio="880" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List_component" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="764">
   <si>
     <t>Value</t>
   </si>
@@ -2092,9 +2092,6 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>DatabaseID</t>
   </si>
   <si>
@@ -2270,9 +2267,6 @@
   </si>
   <si>
     <t>06-0010</t>
-  </si>
-  <si>
-    <t>Datsbase</t>
   </si>
   <si>
     <t>07-0001</t>
@@ -2624,15 +2618,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Components913141510" displayName="Components913141510" ref="A1:U3" totalsRowShown="0">
-  <autoFilter ref="A1:U3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Components913141510" displayName="Components913141510" ref="A1:T3" totalsRowShown="0">
+  <autoFilter ref="A1:T3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="20">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="DatabaseID"/>
     <tableColumn id="18" xr3:uid="{E17698A1-E717-4E71-A2FC-0E5B5B8819BA}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Product Category"/>
-    <tableColumn id="1" xr3:uid="{5B22BDB2-A900-4C8D-B9FB-9F56C0A3625C}" name="Column1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Value"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Alt-Value"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Tolerance"/>
@@ -2864,7 +2857,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Components8" displayName="Components8" ref="A1:T2" totalsRowShown="0">
   <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="20">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Datsbase"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="DatabaseID"/>
     <tableColumn id="1" xr3:uid="{D122E631-DCBA-4640-BFB3-B70F835829BD}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Manufacturer"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Description"/>
@@ -3398,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -3460,7 +3453,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -3494,7 +3487,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B3">
         <v>7471287</v>
@@ -3533,7 +3526,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B4" t="s">
         <v>400</v>
@@ -3578,7 +3571,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
         <v>408</v>
@@ -3619,7 +3612,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
         <v>412</v>
@@ -3646,7 +3639,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B7" t="s">
         <v>464</v>
@@ -3667,7 +3660,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B8" t="s">
         <v>467</v>
@@ -3688,7 +3681,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>512</v>
@@ -3709,7 +3702,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
         <v>513</v>
@@ -3730,7 +3723,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B11" t="s">
         <v>581</v>
@@ -3769,7 +3762,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B12" t="s">
         <v>400</v>
@@ -3814,7 +3807,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B13" t="s">
         <v>647</v>
@@ -3894,7 +3887,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -3956,7 +3949,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
         <v>366</v>
@@ -4030,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4095,7 +4088,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B2" t="s">
         <v>198</v>
@@ -4137,7 +4130,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B3" t="s">
         <v>262</v>
@@ -4188,7 +4181,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B4" t="s">
         <v>343</v>
@@ -4239,7 +4232,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>477</v>
@@ -4329,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4391,7 +4384,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -4421,7 +4414,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B3" t="s">
         <v>388</v>
@@ -4479,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,17 +4484,17 @@
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="21" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4516,57 +4509,54 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B2" t="s">
         <v>272</v>
@@ -4580,33 +4570,33 @@
       <c r="E2" t="s">
         <v>275</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>276</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>278</v>
       </c>
+      <c r="R2" t="s">
+        <v>277</v>
+      </c>
       <c r="S2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="T2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.digikey.com/en/products/filter/optocouplers-optoisolators/triac-scr-output-optoisolators/904" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="R2" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="Q2" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4634,7 +4624,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4696,7 +4686,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B2" t="s">
         <v>317</v>
@@ -4737,7 +4727,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B3" t="s">
         <v>355</v>
@@ -4796,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,7 +4799,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4871,7 +4861,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B2" t="s">
         <v>478</v>
@@ -4953,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -5015,7 +5005,7 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -5055,7 +5045,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -5091,7 +5081,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -5126,7 +5116,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -5176,7 +5166,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B6" t="s">
         <v>533</v>
@@ -5261,7 +5251,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -5323,7 +5313,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B2" t="s">
         <v>185</v>
@@ -5365,7 +5355,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B3" t="s">
         <v>210</v>
@@ -5419,7 +5409,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -5479,7 +5469,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B5" t="s">
         <v>248</v>
@@ -5539,7 +5529,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B6" t="s">
         <v>256</v>
@@ -5599,7 +5589,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -5659,7 +5649,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B8" t="s">
         <v>285</v>
@@ -5719,7 +5709,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B9" t="s">
         <v>288</v>
@@ -5779,7 +5769,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s">
         <v>311</v>
@@ -5831,7 +5821,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" t="s">
         <v>335</v>
@@ -5891,7 +5881,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B12" t="s">
         <v>505</v>
@@ -5951,7 +5941,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B13" t="s">
         <v>509</v>
@@ -6011,7 +6001,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B14" t="s">
         <v>542</v>
@@ -6057,7 +6047,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B15" t="s">
         <v>552</v>
@@ -6109,7 +6099,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
         <v>620</v>
@@ -6161,7 +6151,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" t="s">
         <v>631</v>
@@ -6264,7 +6254,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -6326,7 +6316,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
@@ -6380,7 +6370,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -6428,7 +6418,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
         <v>140</v>
@@ -6482,7 +6472,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B5" t="s">
         <v>151</v>
@@ -6542,7 +6532,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B6" t="s">
         <v>162</v>
@@ -6596,7 +6586,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
         <v>240</v>
@@ -6656,7 +6646,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" t="s">
         <v>293</v>
@@ -6704,7 +6694,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B9" t="s">
         <v>303</v>
@@ -6752,7 +6742,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B10" t="s">
         <v>376</v>
@@ -6812,7 +6802,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B11" t="s">
         <v>490</v>
@@ -6872,7 +6862,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B12" t="s">
         <v>495</v>
@@ -6933,7 +6923,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B13" t="s">
         <v>501</v>
@@ -6994,7 +6984,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B14" t="s">
         <v>527</v>
@@ -7055,7 +7045,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B15" t="s">
         <v>557</v>
@@ -7115,7 +7105,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B16" t="s">
         <v>567</v>
@@ -7169,7 +7159,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B17" t="s">
         <v>593</v>
@@ -7224,7 +7214,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B18" t="s">
         <v>597</v>
@@ -7278,7 +7268,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B19" t="s">
         <v>600</v>
@@ -7332,7 +7322,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" t="s">
         <v>608</v>
@@ -7434,8 +7424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7451,7 +7441,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -7513,7 +7503,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -7554,7 +7544,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B3" t="s">
         <v>230</v>
@@ -7595,7 +7585,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B4" t="s">
         <v>327</v>
@@ -7636,7 +7626,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B5" t="s">
         <v>519</v>
@@ -7677,7 +7667,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B6" t="s">
         <v>655</v>
@@ -7706,7 +7696,7 @@
       <c r="Q6" t="s">
         <v>654</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="5" t="s">
         <v>662</v>
       </c>
       <c r="S6" t="s">
@@ -7729,11 +7719,12 @@
     <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
     <hyperlink ref="C6" r:id="rId6" display="https://www.mouser.vn/manufacturer/rectron/" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
     <hyperlink ref="R3" r:id="rId7" xr:uid="{7636782F-9235-45FB-8EC4-90B3871015C2}"/>
+    <hyperlink ref="R6" r:id="rId8" xr:uid="{DA70B302-570B-4003-A290-1E4E7FC68467}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7742,9 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7753,7 +7742,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -7815,7 +7804,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -7856,7 +7845,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7930,7 +7919,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -7992,7 +7981,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -8027,7 +8016,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -8062,7 +8051,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B4" t="s">
         <v>418</v>
@@ -8103,7 +8092,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B5" t="s">
         <v>443</v>
@@ -8144,7 +8133,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B6" t="s">
         <v>455</v>
@@ -8185,7 +8174,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B7" t="s">
         <v>450</v>
@@ -8226,7 +8215,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B8" t="s">
         <v>461</v>
@@ -8267,7 +8256,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
         <v>437</v>
@@ -8308,7 +8297,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B10" t="s">
         <v>469</v>
@@ -8349,7 +8338,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B11" t="s">
         <v>638</v>
@@ -8416,7 +8405,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8427,7 +8416,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -8489,7 +8478,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -8551,7 +8540,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -8613,7 +8602,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
